--- a/doc/Greensche Funktion.xlsx
+++ b/doc/Greensche Funktion.xlsx
@@ -994,12 +994,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Green t=50</t>
-  </si>
-  <si>
-    <t>Green t=100</t>
-  </si>
-  <si>
     <t>Diffusion t=100</t>
   </si>
   <si>
@@ -1011,11 +1005,20 @@
   <si>
     <t>Green nach Ende</t>
   </si>
+  <si>
+    <t>Dichte t=50</t>
+  </si>
+  <si>
+    <t>Dichte t=100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1045,8 +1048,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1073,7 +1077,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Green t=50</c:v>
+                  <c:v>Dichte t=50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1757,7 +1761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Green t=100</c:v>
+                  <c:v>Dichte t=100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2096,11 +2100,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87883136"/>
-        <c:axId val="88269952"/>
+        <c:axId val="77985664"/>
+        <c:axId val="77987200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87883136"/>
+        <c:axId val="77985664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2112,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88269952"/>
+        <c:crossAx val="77987200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2117,7 +2121,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88269952"/>
+        <c:axId val="77987200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,7 +2129,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87883136"/>
+        <c:crossAx val="77985664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,7 +2142,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   </c:printSettings>
 </c:chartSpace>
@@ -10649,25 +10653,25 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="90112000"/>
-        <c:axId val="90113536"/>
-        <c:axId val="90102400"/>
+        <c:axId val="50456832"/>
+        <c:axId val="53227520"/>
+        <c:axId val="50460416"/>
       </c:surfaceChart>
       <c:catAx>
-        <c:axId val="90112000"/>
+        <c:axId val="50456832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90113536"/>
+        <c:crossAx val="53227520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90113536"/>
+        <c:axId val="53227520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10675,37 +10679,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="90112000"/>
+        <c:crossAx val="50456832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="90102400"/>
+        <c:axId val="50460416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90113536"/>
+        <c:crossAx val="53227520"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -10721,7 +10711,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10798,23 +10788,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1.init" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1.init" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="end_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="end_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="end" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="end" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1.green" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1.green" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10822,15 +10812,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1.green" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_density.d1_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11121,27 +11111,27 @@
   <dimension ref="A2:CJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="2" max="4" width="9" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="9" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" customWidth="1"/>
+    <col min="26" max="27" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" customWidth="1"/>
     <col min="29" max="29" width="8" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
@@ -12115,7 +12105,7 @@
     </row>
     <row r="7" spans="1:88">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1.5899999999999999E-4</v>
@@ -12273,7 +12263,7 @@
     </row>
     <row r="8" spans="1:88">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1.447E-2</v>
@@ -12431,7 +12421,7 @@
     </row>
     <row r="9" spans="1:88">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>1.4512000000000001E-2</v>
@@ -12588,7 +12578,107 @@
       </c>
     </row>
     <row r="10" spans="1:88">
-      <c r="AA10">
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:Z10" si="0">B8-B9</f>
+        <v>-4.200000000000037E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0299999999999893E-4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.9600000000000173E-4</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2999999999999696E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.0799999999999457E-4</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3399999999999854E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0020000000000029E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3009999999999966E-3</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.6049999999999953E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8779999999999908E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0680000000000143E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1139999999999493E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.9479999999999498E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5020000000000033E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.1600000000004993E-4</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.509999999999792E-4</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0120000000001248E-3</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9409999999999723E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1720000000000663E-3</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5979999999998835E-3</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1074999999999946E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3436000000000003E-2</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5505999999999798E-2</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7122000000000082E-2</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8149999999999888E-2</v>
+      </c>
+      <c r="AA10" s="1">
         <f>AA8-AA9</f>
         <v>1.8502999999999936E-2</v>
       </c>
@@ -12616,7 +12706,7 @@
   <sheetData>
     <row r="40" spans="2:52">
       <c r="B40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:52">
@@ -20526,7 +20616,7 @@
     </row>
     <row r="93" spans="2:52">
       <c r="B93" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:52">
@@ -28436,7 +28526,7 @@
     </row>
     <row r="147" spans="2:52">
       <c r="B147" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="2:52">
